--- a/DB概念.xlsx
+++ b/DB概念.xlsx
@@ -5,24 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81906\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\MYSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E53F9-080B-4557-9068-9D4863190C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B140461-28E7-4F58-9537-801DEA891CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="概念" sheetId="1" r:id="rId1"/>
-    <sheet name="安装-版本" sheetId="2" r:id="rId2"/>
-    <sheet name="配置" sheetId="3" r:id="rId3"/>
-    <sheet name="删除" sheetId="4" r:id="rId4"/>
-    <sheet name="DBMS" sheetId="5" r:id="rId5"/>
-    <sheet name="SQL" sheetId="6" r:id="rId6"/>
-    <sheet name="DDL" sheetId="7" r:id="rId7"/>
-    <sheet name="创建和修改数据表" sheetId="8" r:id="rId8"/>
-    <sheet name="数据类型" sheetId="9" r:id="rId9"/>
-    <sheet name="字段约束" sheetId="10" r:id="rId10"/>
+    <sheet name="索引页" sheetId="15" r:id="rId1"/>
+    <sheet name="概念" sheetId="1" r:id="rId2"/>
+    <sheet name="安装-版本" sheetId="2" r:id="rId3"/>
+    <sheet name="配置" sheetId="3" r:id="rId4"/>
+    <sheet name="删除" sheetId="4" r:id="rId5"/>
+    <sheet name="DBMS" sheetId="5" r:id="rId6"/>
+    <sheet name="SQL" sheetId="6" r:id="rId7"/>
+    <sheet name="DDL" sheetId="7" r:id="rId8"/>
+    <sheet name="创建和修改数据表" sheetId="8" r:id="rId9"/>
+    <sheet name="数据类型" sheetId="9" r:id="rId10"/>
+    <sheet name="字段约束" sheetId="10" r:id="rId11"/>
+    <sheet name="非空约束" sheetId="11" r:id="rId12"/>
+    <sheet name="唯一约束" sheetId="12" r:id="rId13"/>
+    <sheet name="主键约束" sheetId="13" r:id="rId14"/>
+    <sheet name="主键自动增长" sheetId="14" r:id="rId15"/>
+    <sheet name="联合主键" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ID：</t>
     <phoneticPr fontId="1"/>
@@ -115,12 +121,704 @@
     <t>3.日期类型</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>限制数据表中此列的值必须提供</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create table books(
+  book_isbn char(4),
+  book_name varchar(10) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+  book_author varchar(6)
+);</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在表中的多条数据，此列的值不能重复</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create table books(
+  book_isbn char(4) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+  book_name varchar(10) not null,
+  book_author varchar(6)
+);</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主键——就是数据表中记录的唯一标识，在一张表中只能有一个主键（主键可以是一个列，也可以是多个列的组合）
+当一个字段声明为主键之后，添加数据时：
+此字段数据不能为null
+此字段数据不能重复</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>创建表时添加主键约束</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+create table books(
+  book_isbn char(4) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primary key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+  book_name varchar(10) not null,
+  book_author varchar(6)
+);
+或者
+create table books(
+  book_isbn char(4),
+  book_name varchar(10) not null,
+  book_author varchar(6),
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primary key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(book_isbn)
+);</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>删除数据表主键约束</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+alter table books drop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>primary key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>创建表之后添加主键约束</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+## 创建表时没有添加主键约束
+create table books(
+  book_isbn char(4),
+  book_name varchar(10) not null,
+  book_author varchar(6)
+);
+## 创建表之后添加主键约束
+ alter table books modify book_isbn char(4) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>primary key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>据无具体的含义主要用于标识一条记录，在mysql中我们可以将此列定义为int，同时设置为自动增长，当我们向数据表中新增一条记录时，无需提供ID列的值，它会自动生成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">定义int类型字段自动增长：auto_increment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">create table types(
+   type_id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>int primary key auto_increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>,
+   type_name varchar(20) not null,
+   type_remark varchar(100)
+);
+注意：自动增长从1开始，每添加一条记录，自动的增长的列会自定+1，当我们把某条记录删除之后再添加数据，自动增长的数据也不会重复生成（自动增长只保证唯一性、不保证连续性）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概念</t>
+  </si>
+  <si>
+    <t>安装-版本</t>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>DBMS</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建和修改数据表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>字段</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>约</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>束</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>约</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>束</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>唯一</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>约</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>束</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键约</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>束</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">联合组件——将数据表中的多列组合在一起设置为表的主键
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+create table grades(
+    stu_num char(8),
+    course_id int,
+    score int,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>primary key(stu_num,course_id)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+);
+注意：在实际企业项目的数据库设计中，联合主键使用频率并不高；当一个张数据表中没有明确的字段可以作为主键时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>我们可以额外添加一个ID字段作为主键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合主</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +881,104 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +988,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -200,18 +996,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -329,6 +1234,61 @@
         <a:xfrm>
           <a:off x="647700" y="243840"/>
           <a:ext cx="7635902" cy="3993226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92081</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92BE452-B467-42C5-8DA8-C91B629BBDBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739140" y="182880"/>
+          <a:ext cx="7399661" cy="2865368"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3526,6 +4486,1177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25606B7-366F-4C81-8C90-1DA9E21909F7}">
+  <dimension ref="A2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.2"/>
+  <cols>
+    <col min="2" max="2" width="11.8984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="22.8" thickBot="1">
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.4" thickTop="1" thickBot="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.4" thickTop="1" thickBot="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.4" thickTop="1" thickBot="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.4" thickTop="1" thickBot="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.4" thickTop="1" thickBot="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.4" thickTop="1" thickBot="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.4" thickTop="1" thickBot="1">
+      <c r="C9" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.4" thickTop="1" thickBot="1">
+      <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.4" thickTop="1" thickBot="1">
+      <c r="C11" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="22.8" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B3" location="概念!A1" display="概念" xr:uid="{69D47F77-AD38-4179-BD68-91F894B06F8A}"/>
+    <hyperlink ref="B4" location="'安装-版本'!A1" display="安装-版本" xr:uid="{F18FB669-BCA3-40D0-A19B-B1DDC01E50B1}"/>
+    <hyperlink ref="B5" location="配置!A1" display="配置" xr:uid="{468103BA-BD2D-4711-8328-11741524477F}"/>
+    <hyperlink ref="B6" location="删除!A1" display="删除" xr:uid="{17AEF87C-A8FF-4104-A9BB-87C1BB843C64}"/>
+    <hyperlink ref="B7" location="DBMS!A1" display="DBMS" xr:uid="{6D511911-34F6-48E5-80F7-6131836958A9}"/>
+    <hyperlink ref="B8" location="SQL!A1" display="SQL" xr:uid="{E8CC149E-C245-4FB9-8179-A221CFC893A5}"/>
+    <hyperlink ref="C3" location="DDL!A1" display="DDL" xr:uid="{1F90FF8F-1A51-4682-A9B7-5F5B0E56D735}"/>
+    <hyperlink ref="C4" location="创建和修改数据表!A1" display="创建和修改数据表" xr:uid="{CA54C3BC-4119-48C8-ABD4-AF90486631C3}"/>
+    <hyperlink ref="C5" location="数据类型!A1" display="数据类型" xr:uid="{4D08211B-96F2-4516-A1C2-CD4E16820152}"/>
+    <hyperlink ref="C6" location="字段约束!A1" display="字段约束" xr:uid="{516B46BC-AD60-4291-B8AE-DE5DF2F07120}"/>
+    <hyperlink ref="C7" location="非空约束!A1" display="非空约束" xr:uid="{99CD452D-48F7-4358-BDC7-2DE3B6B170D0}"/>
+    <hyperlink ref="C8" location="唯一约束!A1" display="唯一约束" xr:uid="{134BB683-AE9D-49B1-A4E2-B9164E92A70B}"/>
+    <hyperlink ref="C9" location="主键约束!A1" display="主键约束" xr:uid="{82226CF2-60BE-4C96-9921-8D064C3723EE}"/>
+    <hyperlink ref="C10" location="主键自动增长!A1" display="主键自动增长" xr:uid="{7689B085-07A6-4AD3-9ADC-FD890F79B633}"/>
+    <hyperlink ref="C11" location="联合主键!A1" display="联合主键" xr:uid="{E259ED91-5E2C-40CC-B4D0-F28115CA490A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8854B829-F1B2-4A40-ABB1-3FA8DB15D3EA}">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB0FDAD-C21E-4069-AD3C-8615D69FDE8B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D698AF4A-41AD-4EB1-9613-8CC7C83D8BAE}">
+  <dimension ref="C4:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="4" spans="3:9">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:I14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429721DF-2DC2-469B-AB7E-00CC1049B6AB}">
+  <dimension ref="C4:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="4" spans="3:9">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:I14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D89F3E-C606-4820-95F1-4920DFB4A026}">
+  <dimension ref="B3:J46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" customHeight="1">
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:H9"/>
+    <mergeCell ref="B12:J26"/>
+    <mergeCell ref="B28:J32"/>
+    <mergeCell ref="B34:J46"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB37F0A-343E-4925-962B-7BB2BC17D0A0}">
+  <dimension ref="B3:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:I7"/>
+    <mergeCell ref="B10:J21"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AEC285-38A5-401E-BBFA-BB729CE3F26A}">
+  <dimension ref="B16:L25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="16" spans="2:12">
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:L25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B21"/>
   <sheetViews>
@@ -3551,23 +5682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB0FDAD-C21E-4069-AD3C-8615D69FDE8B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E561B5-CF75-4B07-B60B-0E33C8AD67BF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3583,7 +5698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390DE6CF-3E2D-42AF-BF41-5A9ADA15AE12}">
   <dimension ref="M4:N5"/>
   <sheetViews>
@@ -3620,7 +5735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B138DEDC-C29D-4ACB-868A-51A9917A6D54}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3636,12 +5751,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09561EB3-253F-46D0-A048-135147FE4E46}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408BBA37-1CB0-461B-AC27-0AF2313087FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3652,27 +5781,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408BBA37-1CB0-461B-AC27-0AF2313087FC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80D55A9-40AC-4454-8A9F-56875634E688}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3684,11 +5797,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6AA0BB-1B50-4A55-BE01-B0AC70B06B2F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
@@ -3698,42 +5811,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8854B829-F1B2-4A40-ABB1-3FA8DB15D3EA}">
-  <dimension ref="B2:B6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>